--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose\Downloads\PublicadorYapo-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jose/Desktop/PRY/PublicaYapo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2B7664-6433-47B7-9028-1922585BAA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC983AB6-3018-F44E-B7FC-BBEB69A84A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B1F32B1-6506-E74C-9132-49A7366AAE0B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{2B1F32B1-6506-E74C-9132-49A7366AAE0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Categoría</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Almohada para embarazadas en forma de C, color rosado</t>
-  </si>
-  <si>
-    <t>C:\Users\jose\Downloads\almohada c.jpg</t>
   </si>
 </sst>
 </file>
@@ -469,10 +466,10 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
@@ -531,12 +528,6 @@
       <c r="E2">
         <v>23000</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
       <c r="L2">
         <v>15</v>
       </c>
@@ -560,12 +551,6 @@
       <c r="E3">
         <v>23000</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
       <c r="L3">
         <v>15</v>
       </c>
@@ -588,12 +573,6 @@
       </c>
       <c r="E4">
         <v>23000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
       </c>
       <c r="L4">
         <v>15</v>
